--- a/tests/testing_files/duplicate_columns.xlsx
+++ b/tests/testing_files/duplicate_columns.xlsx
@@ -1,180 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A065DAC-6D5D-4150-81AC-254ED6ACC910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351866BB-E42F-47F6-8AA6-B71C775AB6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2085" windowWidth="23565" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4260" yWindow="3285" windowWidth="23640" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#tagging" sheetId="4" r:id="rId1"/>
-    <sheet name="#export" sheetId="8" r:id="rId2"/>
+    <sheet name="#automate" sheetId="1" r:id="rId1"/>
+    <sheet name="#export" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="all_samples">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>C5H8O4</t>
-  </si>
-  <si>
-    <t>(S)-2-Acetolactate_Glutaric acid_Methylsuccinic acid_MP_NoStd</t>
-  </si>
-  <si>
-    <t>01_A0_Colon_T03-2017_naive_170427_UKy_GCB_rep1-quench</t>
-  </si>
-  <si>
-    <t>Compound: name of assigned metabolite, noStd means assigment was NOT verified with standard compound</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>Mol_Formula</t>
-  </si>
-  <si>
-    <t>C_isomers</t>
-  </si>
-  <si>
-    <t>SamplID</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>Renormalized</t>
-  </si>
-  <si>
-    <t>Total.NA.Removed</t>
-  </si>
-  <si>
-    <t>Corrected</t>
-  </si>
-  <si>
-    <t>Predicted</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Quantified_uM_ratio</t>
-  </si>
-  <si>
-    <t>Quantified_uM_sequence_ratio</t>
-  </si>
-  <si>
-    <t>reconstitution_volume_uL</t>
-  </si>
-  <si>
-    <t>injection_volume_uL</t>
-  </si>
-  <si>
-    <t>protein_mg</t>
-  </si>
-  <si>
-    <t>icms_split_ratio</t>
-  </si>
-  <si>
-    <t>Amount_ProteinAdj_uMol_g_protein_RatioBased</t>
-  </si>
-  <si>
-    <t>Amount_ProteinAdj_uMol_g_protein_SequenceBased</t>
-  </si>
-  <si>
-    <t>CommentQuantification</t>
+    <t>#insert</t>
   </si>
   <si>
     <t>#tags</t>
-  </si>
-  <si>
-    <t>#header</t>
-  </si>
-  <si>
-    <t>#tag.add</t>
-  </si>
-  <si>
-    <t>#sample.id</t>
-  </si>
-  <si>
-    <t>#measurement.id</t>
-  </si>
-  <si>
-    <t>#measurement.assignment</t>
-  </si>
-  <si>
-    <t>#measurement.compound</t>
-  </si>
-  <si>
-    <t>#measurement.formula</t>
-  </si>
-  <si>
-    <t>#measurement.isotopologue;#%type="13C"</t>
-  </si>
-  <si>
-    <t>#measurement.raw_intensity;#%type="spectrometer peak area"</t>
-  </si>
-  <si>
-    <t>#measurement.corrected_raw_intensity;#%type="natural abundance corrected peak area"</t>
-  </si>
-  <si>
-    <t>#measurement.concentration;#%units=uM;#%type="calculated from standard"</t>
-  </si>
-  <si>
-    <t>Compound+"-13C"+C_isomers+"-"+SamplID</t>
-  </si>
-  <si>
-    <t>Compound+"-13C"+C_isomers</t>
-  </si>
-  <si>
-    <t>"13C"+C_isomers</t>
-  </si>
-  <si>
-    <t>#insert</t>
-  </si>
-  <si>
-    <t>#end</t>
-  </si>
-  <si>
-    <t>#protocol.id=ICMS1</t>
-  </si>
-  <si>
-    <t>#measurement.normalized_concentration;#%type="protein normalized";#%units="uMol/g"</t>
-  </si>
-  <si>
-    <t>eval(float(#Renormalized#) / float(#protein_mg#))</t>
-  </si>
-  <si>
-    <t>#measurement.intensity;#%type="natural abundance corrected and protein normalized peak area";#%units="area/g"</t>
   </si>
   <si>
     <t>#protocol.id</t>
@@ -245,22 +100,147 @@
   </si>
   <si>
     <t>IC-FTMS_measurement</t>
+  </si>
+  <si>
+    <t>#end</t>
+  </si>
+  <si>
+    <t>#header</t>
+  </si>
+  <si>
+    <t>Compound+"-13C"+C_isomers+"-"+SamplID</t>
+  </si>
+  <si>
+    <t>#measurement.id</t>
+  </si>
+  <si>
+    <t>Compound+"-13C"+C_isomers</t>
+  </si>
+  <si>
+    <t>#measurement.assignment</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>#measurement.compound</t>
+  </si>
+  <si>
+    <t>Mol_Formula</t>
+  </si>
+  <si>
+    <t>#measurement.formula</t>
+  </si>
+  <si>
+    <t>SamplID</t>
+  </si>
+  <si>
+    <t>"13C"+C_isomers</t>
+  </si>
+  <si>
+    <t>#measurement.isotopologue;#%type="13C"</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>#measurement.raw_intensity;#%type="spectrometer peak area"</t>
+  </si>
+  <si>
+    <t>Renormalized</t>
+  </si>
+  <si>
+    <t>#measurement.corrected_raw_intensity;#%type="natural abundance corrected peak area"</t>
+  </si>
+  <si>
+    <t>Quantified_uM_sequence_ratio</t>
+  </si>
+  <si>
+    <t>#measurement.concentration;#%units=uM;#%type="calculated from standard"</t>
+  </si>
+  <si>
+    <t>Amount_ProteinAdj_uMol_g_protein_SequenceBased</t>
+  </si>
+  <si>
+    <t>#measurement.normalized_concentration;#%type="protein normalized";#%units="uMol/g"</t>
+  </si>
+  <si>
+    <t>eval(float(#Renormalized#) / float(#protein_mg#))</t>
+  </si>
+  <si>
+    <t>#measurement.intensity;#%type="natural abundance corrected and protein normalized peak area";#%units="area/g"</t>
+  </si>
+  <si>
+    <t>C_isomers</t>
+  </si>
+  <si>
+    <t>Total.NA.Removed</t>
+  </si>
+  <si>
+    <t>Corrected</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Quantified_uM_ratio</t>
+  </si>
+  <si>
+    <t>reconstitution_volume_uL</t>
+  </si>
+  <si>
+    <t>injection_volume_uL</t>
+  </si>
+  <si>
+    <t>protein_mg</t>
+  </si>
+  <si>
+    <t>icms_split_ratio</t>
+  </si>
+  <si>
+    <t>Amount_ProteinAdj_uMol_g_protein_RatioBased</t>
+  </si>
+  <si>
+    <t>CommentQuantification</t>
+  </si>
+  <si>
+    <t>(S)-2-Acetolactate_Glutaric acid_Methylsuccinic acid_MP_NoStd</t>
+  </si>
+  <si>
+    <t>C5H8O4</t>
+  </si>
+  <si>
+    <t>01_A0_Colon_T03-2017_naive_170427_UKy_GCB_rep1-quench</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Compound: name of assigned metabolite, noStd means assigment was NOT verified with standard compound</t>
+  </si>
+  <si>
+    <t>#.sample.id</t>
+  </si>
+  <si>
+    <t>#.protocol.id=ICMS1</t>
+  </si>
+  <si>
+    <t>#add</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -293,7 +273,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
@@ -301,8 +281,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{834DA9FC-368E-1942-A812-7312F812EFB0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{814015EB-E171-40CE-9CA8-0E90EE67241B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,11 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FFFD15-87D9-4AFC-82C0-CA4CE918806E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,115 +607,115 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -743,79 +723,79 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A91633-EF22-4FB2-80F3-5ACFB40D0097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -835,78 +815,78 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="R1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>7989221.8338638796</v>
@@ -927,7 +907,7 @@
         <v>7839899.2880199999</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -954,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>289287.73343735602</v>
@@ -989,7 +969,7 @@
         <v>439597.55237699999</v>
       </c>
       <c r="K3" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1016,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
